--- a/DataSet/2020. 2분기 가구원수당 세대수.xlsx
+++ b/DataSet/2020. 2분기 가구원수당 세대수.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auteu\Downloads\동별 세대원수별 세대수\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\WaRaConv\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C993BE5-7F90-4851-AEBA-38C35B8C446E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8481ACE-908E-4AC4-866F-70BF4769E670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="1770" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="10155" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020. 2분기 가구원수당 세대수" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>자치구</t>
   </si>
   <si>
-    <t>동</t>
-  </si>
-  <si>
     <t>전체세대수</t>
   </si>
   <si>
@@ -1415,12 +1412,16 @@
   </si>
   <si>
     <t>길동</t>
+  </si>
+  <si>
+    <t>행정동</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2368,10 +2369,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N452"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2383,40 +2386,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -2424,10 +2427,10 @@
         <v>2020.06</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1">
         <v>4384076</v>
@@ -2468,10 +2471,10 @@
         <v>2020.06</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>74497</v>
@@ -2512,10 +2515,10 @@
         <v>2020.06</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>4717</v>
@@ -2556,10 +2559,10 @@
         <v>2020.06</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>1370</v>
@@ -2600,10 +2603,10 @@
         <v>2020.06</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>4346</v>
@@ -2644,10 +2647,10 @@
         <v>2020.06</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
         <v>7517</v>
@@ -2688,10 +2691,10 @@
         <v>2020.06</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>3203</v>
@@ -2732,10 +2735,10 @@
         <v>2020.06</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1">
         <v>4595</v>
@@ -2776,10 +2779,10 @@
         <v>2020.06</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>2074</v>
@@ -2820,10 +2823,10 @@
         <v>2020.06</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1">
         <v>5232</v>
@@ -2864,10 +2867,10 @@
         <v>2020.06</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1">
         <v>3406</v>
@@ -2908,10 +2911,10 @@
         <v>2020.06</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1">
         <v>4463</v>
@@ -2952,10 +2955,10 @@
         <v>2020.06</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1">
         <v>2952</v>
@@ -2996,10 +2999,10 @@
         <v>2020.06</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1">
         <v>4137</v>
@@ -3040,10 +3043,10 @@
         <v>2020.06</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1">
         <v>2905</v>
@@ -3084,10 +3087,10 @@
         <v>2020.06</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1">
         <v>2990</v>
@@ -3128,10 +3131,10 @@
         <v>2020.06</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1">
         <v>5871</v>
@@ -3172,10 +3175,10 @@
         <v>2020.06</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1">
         <v>5395</v>
@@ -3216,10 +3219,10 @@
         <v>2020.06</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1">
         <v>9324</v>
@@ -3260,10 +3263,10 @@
         <v>2020.06</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1">
         <v>63354</v>
@@ -3304,10 +3307,10 @@
         <v>2020.06</v>
       </c>
       <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
         <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
       </c>
       <c r="D22" s="1">
         <v>1131</v>
@@ -3348,10 +3351,10 @@
         <v>2020.06</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="1">
         <v>3083</v>
@@ -3392,10 +3395,10 @@
         <v>2020.06</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="1">
         <v>1589</v>
@@ -3436,10 +3439,10 @@
         <v>2020.06</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="1">
         <v>2338</v>
@@ -3480,10 +3483,10 @@
         <v>2020.06</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1">
         <v>2761</v>
@@ -3524,10 +3527,10 @@
         <v>2020.06</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="1">
         <v>3075</v>
@@ -3568,10 +3571,10 @@
         <v>2020.06</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1">
         <v>1358</v>
@@ -3612,10 +3615,10 @@
         <v>2020.06</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1">
         <v>5363</v>
@@ -3656,10 +3659,10 @@
         <v>2020.06</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="1">
         <v>6935</v>
@@ -3700,10 +3703,10 @@
         <v>2020.06</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="1">
         <v>5860</v>
@@ -3744,10 +3747,10 @@
         <v>2020.06</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="1">
         <v>4515</v>
@@ -3788,10 +3791,10 @@
         <v>2020.06</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="1">
         <v>6991</v>
@@ -3832,10 +3835,10 @@
         <v>2020.06</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1">
         <v>7828</v>
@@ -3876,10 +3879,10 @@
         <v>2020.06</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" s="1">
         <v>6359</v>
@@ -3920,10 +3923,10 @@
         <v>2020.06</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="1">
         <v>4168</v>
@@ -3964,10 +3967,10 @@
         <v>2020.06</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="1">
         <v>111586</v>
@@ -4008,10 +4011,10 @@
         <v>2020.06</v>
       </c>
       <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
         <v>50</v>
-      </c>
-      <c r="C38" t="s">
-        <v>51</v>
       </c>
       <c r="D38" s="1">
         <v>8594</v>
@@ -4052,10 +4055,10 @@
         <v>2020.06</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" s="1">
         <v>5427</v>
@@ -4096,10 +4099,10 @@
         <v>2020.06</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="1">
         <v>5450</v>
@@ -4140,10 +4143,10 @@
         <v>2020.06</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="1">
         <v>6018</v>
@@ -4184,10 +4187,10 @@
         <v>2020.06</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" s="1">
         <v>4329</v>
@@ -4228,10 +4231,10 @@
         <v>2020.06</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" s="1">
         <v>5412</v>
@@ -4272,10 +4275,10 @@
         <v>2020.06</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" s="1">
         <v>10356</v>
@@ -4316,10 +4319,10 @@
         <v>2020.06</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45" s="1">
         <v>3848</v>
@@ -4360,10 +4363,10 @@
         <v>2020.06</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" s="1">
         <v>3839</v>
@@ -4404,10 +4407,10 @@
         <v>2020.06</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="1">
         <v>4955</v>
@@ -4448,10 +4451,10 @@
         <v>2020.06</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="1">
         <v>5316</v>
@@ -4492,10 +4495,10 @@
         <v>2020.06</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" s="1">
         <v>7724</v>
@@ -4536,10 +4539,10 @@
         <v>2020.06</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" s="1">
         <v>11028</v>
@@ -4580,10 +4583,10 @@
         <v>2020.06</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" s="1">
         <v>7956</v>
@@ -4624,10 +4627,10 @@
         <v>2020.06</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" s="1">
         <v>10005</v>
@@ -4668,10 +4671,10 @@
         <v>2020.06</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53" s="1">
         <v>11329</v>
@@ -4712,10 +4715,10 @@
         <v>2020.06</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" s="1">
         <v>135937</v>
@@ -4756,10 +4759,10 @@
         <v>2020.06</v>
       </c>
       <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
         <v>67</v>
-      </c>
-      <c r="C55" t="s">
-        <v>68</v>
       </c>
       <c r="D55" s="1">
         <v>7626</v>
@@ -4800,10 +4803,10 @@
         <v>2020.06</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D56" s="1">
         <v>10912</v>
@@ -4844,10 +4847,10 @@
         <v>2020.06</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" s="1">
         <v>7696</v>
@@ -4888,10 +4891,10 @@
         <v>2020.06</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D58" s="1">
         <v>6617</v>
@@ -4932,10 +4935,10 @@
         <v>2020.06</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D59" s="1">
         <v>9482</v>
@@ -4976,10 +4979,10 @@
         <v>2020.06</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D60" s="1">
         <v>6145</v>
@@ -5020,10 +5023,10 @@
         <v>2020.06</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D61" s="1">
         <v>6687</v>
@@ -5064,10 +5067,10 @@
         <v>2020.06</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D62" s="1">
         <v>6463</v>
@@ -5108,10 +5111,10 @@
         <v>2020.06</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D63" s="1">
         <v>7602</v>
@@ -5152,10 +5155,10 @@
         <v>2020.06</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D64" s="1">
         <v>6632</v>
@@ -5196,10 +5199,10 @@
         <v>2020.06</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D65" s="1">
         <v>8512</v>
@@ -5240,10 +5243,10 @@
         <v>2020.06</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D66" s="1">
         <v>5751</v>
@@ -5284,10 +5287,10 @@
         <v>2020.06</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D67" s="1">
         <v>5578</v>
@@ -5328,10 +5331,10 @@
         <v>2020.06</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D68" s="1">
         <v>6901</v>
@@ -5372,10 +5375,10 @@
         <v>2020.06</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D69" s="1">
         <v>11909</v>
@@ -5416,10 +5419,10 @@
         <v>2020.06</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D70" s="1">
         <v>10362</v>
@@ -5460,10 +5463,10 @@
         <v>2020.06</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D71" s="1">
         <v>11062</v>
@@ -5504,10 +5507,10 @@
         <v>2020.06</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D72" s="1">
         <v>166307</v>
@@ -5548,10 +5551,10 @@
         <v>2020.06</v>
       </c>
       <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" t="s">
         <v>85</v>
-      </c>
-      <c r="C73" t="s">
-        <v>86</v>
       </c>
       <c r="D73" s="1">
         <v>16608</v>
@@ -5592,10 +5595,10 @@
         <v>2020.06</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D74" s="1">
         <v>10981</v>
@@ -5636,10 +5639,10 @@
         <v>2020.06</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D75" s="1">
         <v>8153</v>
@@ -5680,10 +5683,10 @@
         <v>2020.06</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D76" s="1">
         <v>10604</v>
@@ -5724,10 +5727,10 @@
         <v>2020.06</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D77" s="1">
         <v>8538</v>
@@ -5768,10 +5771,10 @@
         <v>2020.06</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D78" s="1">
         <v>13257</v>
@@ -5812,10 +5815,10 @@
         <v>2020.06</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1">
         <v>6473</v>
@@ -5856,10 +5859,10 @@
         <v>2020.06</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D80" s="1">
         <v>12089</v>
@@ -5900,10 +5903,10 @@
         <v>2020.06</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D81" s="1">
         <v>11645</v>
@@ -5944,10 +5947,10 @@
         <v>2020.06</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D82" s="1">
         <v>12218</v>
@@ -5988,10 +5991,10 @@
         <v>2020.06</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D83" s="1">
         <v>12073</v>
@@ -6032,10 +6035,10 @@
         <v>2020.06</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D84" s="1">
         <v>11646</v>
@@ -6076,10 +6079,10 @@
         <v>2020.06</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D85" s="1">
         <v>11285</v>
@@ -6120,10 +6123,10 @@
         <v>2020.06</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D86" s="1">
         <v>11111</v>
@@ -6164,10 +6167,10 @@
         <v>2020.06</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D87" s="1">
         <v>9626</v>
@@ -6208,10 +6211,10 @@
         <v>2020.06</v>
       </c>
       <c r="B88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88" s="1">
         <v>166451</v>
@@ -6252,10 +6255,10 @@
         <v>2020.06</v>
       </c>
       <c r="B89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" t="s">
         <v>101</v>
-      </c>
-      <c r="C89" t="s">
-        <v>102</v>
       </c>
       <c r="D89" s="1">
         <v>6209</v>
@@ -6296,10 +6299,10 @@
         <v>2020.06</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D90" s="1">
         <v>7123</v>
@@ -6340,10 +6343,10 @@
         <v>2020.06</v>
       </c>
       <c r="B91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D91" s="1">
         <v>11762</v>
@@ -6384,10 +6387,10 @@
         <v>2020.06</v>
       </c>
       <c r="B92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D92" s="1">
         <v>10495</v>
@@ -6428,10 +6431,10 @@
         <v>2020.06</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D93" s="1">
         <v>17906</v>
@@ -6472,10 +6475,10 @@
         <v>2020.06</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D94" s="1">
         <v>13181</v>
@@ -6516,10 +6519,10 @@
         <v>2020.06</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D95" s="1">
         <v>15170</v>
@@ -6560,10 +6563,10 @@
         <v>2020.06</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D96" s="1">
         <v>7751</v>
@@ -6604,10 +6607,10 @@
         <v>2020.06</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D97" s="1">
         <v>12981</v>
@@ -6648,10 +6651,10 @@
         <v>2020.06</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D98" s="1">
         <v>17976</v>
@@ -6692,10 +6695,10 @@
         <v>2020.06</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D99" s="1">
         <v>13925</v>
@@ -6736,10 +6739,10 @@
         <v>2020.06</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D100" s="1">
         <v>10512</v>
@@ -6780,10 +6783,10 @@
         <v>2020.06</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D101" s="1">
         <v>8642</v>
@@ -6824,10 +6827,10 @@
         <v>2020.06</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D102" s="1">
         <v>12818</v>
@@ -6868,10 +6871,10 @@
         <v>2020.06</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D103" s="1">
         <v>183310</v>
@@ -6912,10 +6915,10 @@
         <v>2020.06</v>
       </c>
       <c r="B104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" t="s">
         <v>116</v>
-      </c>
-      <c r="C104" t="s">
-        <v>117</v>
       </c>
       <c r="D104" s="1">
         <v>12333</v>
@@ -6956,10 +6959,10 @@
         <v>2020.06</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D105" s="1">
         <v>9121</v>
@@ -7000,10 +7003,10 @@
         <v>2020.06</v>
       </c>
       <c r="B106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D106" s="1">
         <v>4521</v>
@@ -7044,10 +7047,10 @@
         <v>2020.06</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D107" s="1">
         <v>10573</v>
@@ -7088,10 +7091,10 @@
         <v>2020.06</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D108" s="1">
         <v>10345</v>
@@ -7132,10 +7135,10 @@
         <v>2020.06</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D109" s="1">
         <v>11395</v>
@@ -7176,10 +7179,10 @@
         <v>2020.06</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D110" s="1">
         <v>9083</v>
@@ -7220,10 +7223,10 @@
         <v>2020.06</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D111" s="1">
         <v>13989</v>
@@ -7264,10 +7267,10 @@
         <v>2020.06</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D112" s="1">
         <v>14860</v>
@@ -7308,10 +7311,10 @@
         <v>2020.06</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D113" s="1">
         <v>9262</v>
@@ -7352,10 +7355,10 @@
         <v>2020.06</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D114" s="1">
         <v>8457</v>
@@ -7396,10 +7399,10 @@
         <v>2020.06</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D115" s="1">
         <v>14887</v>
@@ -7440,10 +7443,10 @@
         <v>2020.06</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D116" s="1">
         <v>9071</v>
@@ -7484,10 +7487,10 @@
         <v>2020.06</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D117" s="1">
         <v>17744</v>
@@ -7528,10 +7531,10 @@
         <v>2020.06</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D118" s="1">
         <v>12787</v>
@@ -7572,10 +7575,10 @@
         <v>2020.06</v>
       </c>
       <c r="B119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D119" s="1">
         <v>14882</v>
@@ -7616,10 +7619,10 @@
         <v>2020.06</v>
       </c>
       <c r="B120" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D120" s="1">
         <v>195064</v>
@@ -7660,10 +7663,10 @@
         <v>2020.06</v>
       </c>
       <c r="B121" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" t="s">
         <v>133</v>
-      </c>
-      <c r="C121" t="s">
-        <v>134</v>
       </c>
       <c r="D121" s="1">
         <v>6247</v>
@@ -7704,10 +7707,10 @@
         <v>2020.06</v>
       </c>
       <c r="B122" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D122" s="1">
         <v>8682</v>
@@ -7748,10 +7751,10 @@
         <v>2020.06</v>
       </c>
       <c r="B123" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C123" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D123" s="1">
         <v>9409</v>
@@ -7792,10 +7795,10 @@
         <v>2020.06</v>
       </c>
       <c r="B124" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C124" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D124" s="1">
         <v>7946</v>
@@ -7836,10 +7839,10 @@
         <v>2020.06</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D125" s="1">
         <v>7520</v>
@@ -7880,10 +7883,10 @@
         <v>2020.06</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C126" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D126" s="1">
         <v>9719</v>
@@ -7924,10 +7927,10 @@
         <v>2020.06</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C127" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D127" s="1">
         <v>7946</v>
@@ -7968,10 +7971,10 @@
         <v>2020.06</v>
       </c>
       <c r="B128" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C128" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D128" s="1">
         <v>10982</v>
@@ -8012,10 +8015,10 @@
         <v>2020.06</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D129" s="1">
         <v>12814</v>
@@ -8056,10 +8059,10 @@
         <v>2020.06</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D130" s="1">
         <v>7109</v>
@@ -8100,10 +8103,10 @@
         <v>2020.06</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D131" s="1">
         <v>10858</v>
@@ -8144,10 +8147,10 @@
         <v>2020.06</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D132" s="1">
         <v>9542</v>
@@ -8188,10 +8191,10 @@
         <v>2020.06</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D133" s="1">
         <v>9091</v>
@@ -8232,10 +8235,10 @@
         <v>2020.06</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C134" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D134" s="1">
         <v>6575</v>
@@ -8276,10 +8279,10 @@
         <v>2020.06</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D135" s="1">
         <v>7413</v>
@@ -8320,10 +8323,10 @@
         <v>2020.06</v>
       </c>
       <c r="B136" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C136" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D136" s="1">
         <v>8192</v>
@@ -8364,10 +8367,10 @@
         <v>2020.06</v>
       </c>
       <c r="B137" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C137" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D137" s="1">
         <v>11808</v>
@@ -8408,10 +8411,10 @@
         <v>2020.06</v>
       </c>
       <c r="B138" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C138" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D138" s="1">
         <v>9354</v>
@@ -8452,10 +8455,10 @@
         <v>2020.06</v>
       </c>
       <c r="B139" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C139" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D139" s="1">
         <v>17296</v>
@@ -8496,10 +8499,10 @@
         <v>2020.06</v>
       </c>
       <c r="B140" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C140" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D140" s="1">
         <v>16561</v>
@@ -8540,10 +8543,10 @@
         <v>2020.06</v>
       </c>
       <c r="B141" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141" s="1">
         <v>145559</v>
@@ -8584,10 +8587,10 @@
         <v>2020.06</v>
       </c>
       <c r="B142" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" t="s">
         <v>154</v>
-      </c>
-      <c r="C142" t="s">
-        <v>155</v>
       </c>
       <c r="D142" s="1">
         <v>10430</v>
@@ -8628,10 +8631,10 @@
         <v>2020.06</v>
       </c>
       <c r="B143" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C143" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D143" s="1">
         <v>7652</v>
@@ -8672,10 +8675,10 @@
         <v>2020.06</v>
       </c>
       <c r="B144" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C144" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D144" s="1">
         <v>7613</v>
@@ -8716,10 +8719,10 @@
         <v>2020.06</v>
       </c>
       <c r="B145" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C145" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D145" s="1">
         <v>10402</v>
@@ -8760,10 +8763,10 @@
         <v>2020.06</v>
       </c>
       <c r="B146" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C146" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D146" s="1">
         <v>9672</v>
@@ -8804,10 +8807,10 @@
         <v>2020.06</v>
       </c>
       <c r="B147" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C147" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D147" s="1">
         <v>12944</v>
@@ -8848,10 +8851,10 @@
         <v>2020.06</v>
       </c>
       <c r="B148" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C148" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D148" s="1">
         <v>11436</v>
@@ -8892,10 +8895,10 @@
         <v>2020.06</v>
       </c>
       <c r="B149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C149" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D149" s="1">
         <v>11593</v>
@@ -8936,10 +8939,10 @@
         <v>2020.06</v>
       </c>
       <c r="B150" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D150" s="1">
         <v>14046</v>
@@ -8980,10 +8983,10 @@
         <v>2020.06</v>
       </c>
       <c r="B151" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D151" s="1">
         <v>13785</v>
@@ -9024,10 +9027,10 @@
         <v>2020.06</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D152" s="1">
         <v>11781</v>
@@ -9068,10 +9071,10 @@
         <v>2020.06</v>
       </c>
       <c r="B153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D153" s="1">
         <v>9553</v>
@@ -9112,10 +9115,10 @@
         <v>2020.06</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D154" s="1">
         <v>14652</v>
@@ -9156,10 +9159,10 @@
         <v>2020.06</v>
       </c>
       <c r="B155" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D155" s="1">
         <v>138966</v>
@@ -9200,10 +9203,10 @@
         <v>2020.06</v>
       </c>
       <c r="B156" t="s">
+        <v>167</v>
+      </c>
+      <c r="C156" t="s">
         <v>168</v>
-      </c>
-      <c r="C156" t="s">
-        <v>169</v>
       </c>
       <c r="D156" s="1">
         <v>9429</v>
@@ -9244,10 +9247,10 @@
         <v>2020.06</v>
       </c>
       <c r="B157" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C157" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D157" s="1">
         <v>8657</v>
@@ -9288,10 +9291,10 @@
         <v>2020.06</v>
       </c>
       <c r="B158" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C158" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D158" s="1">
         <v>7908</v>
@@ -9332,10 +9335,10 @@
         <v>2020.06</v>
       </c>
       <c r="B159" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C159" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D159" s="1">
         <v>7184</v>
@@ -9376,10 +9379,10 @@
         <v>2020.06</v>
       </c>
       <c r="B160" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C160" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D160" s="1">
         <v>12778</v>
@@ -9420,10 +9423,10 @@
         <v>2020.06</v>
       </c>
       <c r="B161" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C161" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D161" s="1">
         <v>9573</v>
@@ -9464,10 +9467,10 @@
         <v>2020.06</v>
       </c>
       <c r="B162" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C162" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D162" s="1">
         <v>10072</v>
@@ -9508,10 +9511,10 @@
         <v>2020.06</v>
       </c>
       <c r="B163" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C163" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D163" s="1">
         <v>10935</v>
@@ -9552,10 +9555,10 @@
         <v>2020.06</v>
       </c>
       <c r="B164" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D164" s="1">
         <v>12424</v>
@@ -9596,10 +9599,10 @@
         <v>2020.06</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D165" s="1">
         <v>6676</v>
@@ -9640,10 +9643,10 @@
         <v>2020.06</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D166" s="1">
         <v>10679</v>
@@ -9684,10 +9687,10 @@
         <v>2020.06</v>
       </c>
       <c r="B167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D167" s="1">
         <v>10139</v>
@@ -9728,10 +9731,10 @@
         <v>2020.06</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D168" s="1">
         <v>10349</v>
@@ -9772,10 +9775,10 @@
         <v>2020.06</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C169" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D169" s="1">
         <v>12163</v>
@@ -9816,10 +9819,10 @@
         <v>2020.06</v>
       </c>
       <c r="B170" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C170" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D170" s="1">
         <v>217897</v>
@@ -9860,10 +9863,10 @@
         <v>2020.06</v>
       </c>
       <c r="B171" t="s">
+        <v>182</v>
+      </c>
+      <c r="C171" t="s">
         <v>183</v>
-      </c>
-      <c r="C171" t="s">
-        <v>184</v>
       </c>
       <c r="D171" s="1">
         <v>10579</v>
@@ -9904,10 +9907,10 @@
         <v>2020.06</v>
       </c>
       <c r="B172" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C172" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D172" s="1">
         <v>12083</v>
@@ -9948,10 +9951,10 @@
         <v>2020.06</v>
       </c>
       <c r="B173" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C173" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D173" s="1">
         <v>13016</v>
@@ -9992,10 +9995,10 @@
         <v>2020.06</v>
       </c>
       <c r="B174" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C174" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D174" s="1">
         <v>16409</v>
@@ -10036,10 +10039,10 @@
         <v>2020.06</v>
       </c>
       <c r="B175" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C175" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D175" s="1">
         <v>11768</v>
@@ -10080,10 +10083,10 @@
         <v>2020.06</v>
       </c>
       <c r="B176" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D176" s="1">
         <v>8282</v>
@@ -10124,10 +10127,10 @@
         <v>2020.06</v>
       </c>
       <c r="B177" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C177" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D177" s="1">
         <v>8789</v>
@@ -10168,10 +10171,10 @@
         <v>2020.06</v>
       </c>
       <c r="B178" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C178" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D178" s="1">
         <v>9085</v>
@@ -10212,10 +10215,10 @@
         <v>2020.06</v>
       </c>
       <c r="B179" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D179" s="1">
         <v>8456</v>
@@ -10256,10 +10259,10 @@
         <v>2020.06</v>
       </c>
       <c r="B180" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D180" s="1">
         <v>15627</v>
@@ -10300,10 +10303,10 @@
         <v>2020.06</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D181" s="1">
         <v>8753</v>
@@ -10344,10 +10347,10 @@
         <v>2020.06</v>
       </c>
       <c r="B182" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C182" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D182" s="1">
         <v>10925</v>
@@ -10388,10 +10391,10 @@
         <v>2020.06</v>
       </c>
       <c r="B183" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D183" s="1">
         <v>9291</v>
@@ -10432,10 +10435,10 @@
         <v>2020.06</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C184" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D184" s="1">
         <v>8462</v>
@@ -10476,10 +10479,10 @@
         <v>2020.06</v>
       </c>
       <c r="B185" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C185" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D185" s="1">
         <v>6607</v>
@@ -10520,10 +10523,10 @@
         <v>2020.06</v>
       </c>
       <c r="B186" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C186" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D186" s="1">
         <v>12219</v>
@@ -10564,10 +10567,10 @@
         <v>2020.06</v>
       </c>
       <c r="B187" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C187" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D187" s="1">
         <v>13926</v>
@@ -10608,10 +10611,10 @@
         <v>2020.06</v>
       </c>
       <c r="B188" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C188" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D188" s="1">
         <v>15411</v>
@@ -10652,10 +10655,10 @@
         <v>2020.06</v>
       </c>
       <c r="B189" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C189" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D189" s="1">
         <v>18209</v>
@@ -10696,10 +10699,10 @@
         <v>2020.06</v>
       </c>
       <c r="B190" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C190" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D190" s="1">
         <v>210664</v>
@@ -10740,10 +10743,10 @@
         <v>2020.06</v>
       </c>
       <c r="B191" t="s">
+        <v>202</v>
+      </c>
+      <c r="C191" t="s">
         <v>203</v>
-      </c>
-      <c r="C191" t="s">
-        <v>204</v>
       </c>
       <c r="D191" s="1">
         <v>17255</v>
@@ -10784,10 +10787,10 @@
         <v>2020.06</v>
       </c>
       <c r="B192" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C192" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D192" s="1">
         <v>17948</v>
@@ -10828,10 +10831,10 @@
         <v>2020.06</v>
       </c>
       <c r="B193" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C193" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D193" s="1">
         <v>11239</v>
@@ -10872,10 +10875,10 @@
         <v>2020.06</v>
       </c>
       <c r="B194" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C194" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D194" s="1">
         <v>12617</v>
@@ -10916,10 +10919,10 @@
         <v>2020.06</v>
       </c>
       <c r="B195" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C195" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D195" s="1">
         <v>13329</v>
@@ -10960,10 +10963,10 @@
         <v>2020.06</v>
       </c>
       <c r="B196" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C196" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D196" s="1">
         <v>14112</v>
@@ -11004,10 +11007,10 @@
         <v>2020.06</v>
       </c>
       <c r="B197" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C197" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D197" s="1">
         <v>12767</v>
@@ -11048,10 +11051,10 @@
         <v>2020.06</v>
       </c>
       <c r="B198" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C198" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D198" s="1">
         <v>10843</v>
@@ -11092,10 +11095,10 @@
         <v>2020.06</v>
       </c>
       <c r="B199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D199" s="1">
         <v>11794</v>
@@ -11136,10 +11139,10 @@
         <v>2020.06</v>
       </c>
       <c r="B200" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D200" s="1">
         <v>9101</v>
@@ -11180,10 +11183,10 @@
         <v>2020.06</v>
       </c>
       <c r="B201" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D201" s="1">
         <v>6893</v>
@@ -11224,10 +11227,10 @@
         <v>2020.06</v>
       </c>
       <c r="B202" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C202" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D202" s="1">
         <v>3770</v>
@@ -11268,10 +11271,10 @@
         <v>2020.06</v>
       </c>
       <c r="B203" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C203" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D203" s="1">
         <v>21616</v>
@@ -11312,10 +11315,10 @@
         <v>2020.06</v>
       </c>
       <c r="B204" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C204" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D204" s="1">
         <v>13887</v>
@@ -11356,10 +11359,10 @@
         <v>2020.06</v>
       </c>
       <c r="B205" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C205" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D205" s="1">
         <v>12698</v>
@@ -11400,10 +11403,10 @@
         <v>2020.06</v>
       </c>
       <c r="B206" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C206" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D206" s="1">
         <v>20795</v>
@@ -11444,10 +11447,10 @@
         <v>2020.06</v>
       </c>
       <c r="B207" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C207" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D207" s="1">
         <v>143323</v>
@@ -11488,10 +11491,10 @@
         <v>2020.06</v>
       </c>
       <c r="B208" t="s">
+        <v>219</v>
+      </c>
+      <c r="C208" t="s">
         <v>220</v>
-      </c>
-      <c r="C208" t="s">
-        <v>221</v>
       </c>
       <c r="D208" s="1">
         <v>8164</v>
@@ -11532,10 +11535,10 @@
         <v>2020.06</v>
       </c>
       <c r="B209" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C209" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D209" s="1">
         <v>10391</v>
@@ -11576,10 +11579,10 @@
         <v>2020.06</v>
       </c>
       <c r="B210" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C210" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D210" s="1">
         <v>7103</v>
@@ -11620,10 +11623,10 @@
         <v>2020.06</v>
       </c>
       <c r="B211" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C211" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D211" s="1">
         <v>5898</v>
@@ -11664,10 +11667,10 @@
         <v>2020.06</v>
       </c>
       <c r="B212" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C212" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D212" s="1">
         <v>9592</v>
@@ -11708,10 +11711,10 @@
         <v>2020.06</v>
       </c>
       <c r="B213" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C213" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D213" s="1">
         <v>12274</v>
@@ -11752,10 +11755,10 @@
         <v>2020.06</v>
       </c>
       <c r="B214" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C214" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D214" s="1">
         <v>5928</v>
@@ -11796,10 +11799,10 @@
         <v>2020.06</v>
       </c>
       <c r="B215" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C215" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D215" s="1">
         <v>13099</v>
@@ -11840,10 +11843,10 @@
         <v>2020.06</v>
       </c>
       <c r="B216" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D216" s="1">
         <v>6987</v>
@@ -11884,10 +11887,10 @@
         <v>2020.06</v>
       </c>
       <c r="B217" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D217" s="1">
         <v>14752</v>
@@ -11928,10 +11931,10 @@
         <v>2020.06</v>
       </c>
       <c r="B218" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D218" s="1">
         <v>9183</v>
@@ -11972,10 +11975,10 @@
         <v>2020.06</v>
       </c>
       <c r="B219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C219" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D219" s="1">
         <v>7542</v>
@@ -12016,10 +12019,10 @@
         <v>2020.06</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C220" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D220" s="1">
         <v>12893</v>
@@ -12060,10 +12063,10 @@
         <v>2020.06</v>
       </c>
       <c r="B221" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C221" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D221" s="1">
         <v>19517</v>
@@ -12104,10 +12107,10 @@
         <v>2020.06</v>
       </c>
       <c r="B222" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C222" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D222" s="1">
         <v>177544</v>
@@ -12148,10 +12151,10 @@
         <v>2020.06</v>
       </c>
       <c r="B223" t="s">
+        <v>234</v>
+      </c>
+      <c r="C223" t="s">
         <v>235</v>
-      </c>
-      <c r="C223" t="s">
-        <v>236</v>
       </c>
       <c r="D223" s="1">
         <v>9197</v>
@@ -12192,10 +12195,10 @@
         <v>2020.06</v>
       </c>
       <c r="B224" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C224" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D224" s="1">
         <v>8216</v>
@@ -12236,10 +12239,10 @@
         <v>2020.06</v>
       </c>
       <c r="B225" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C225" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D225" s="1">
         <v>5658</v>
@@ -12280,10 +12283,10 @@
         <v>2020.06</v>
       </c>
       <c r="B226" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C226" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D226" s="1">
         <v>10214</v>
@@ -12324,10 +12327,10 @@
         <v>2020.06</v>
       </c>
       <c r="B227" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C227" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D227" s="1">
         <v>14808</v>
@@ -12368,10 +12371,10 @@
         <v>2020.06</v>
       </c>
       <c r="B228" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C228" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D228" s="1">
         <v>9691</v>
@@ -12412,10 +12415,10 @@
         <v>2020.06</v>
       </c>
       <c r="B229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D229" s="1">
         <v>10586</v>
@@ -12456,10 +12459,10 @@
         <v>2020.06</v>
       </c>
       <c r="B230" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C230" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D230" s="1">
         <v>8467</v>
@@ -12500,10 +12503,10 @@
         <v>2020.06</v>
       </c>
       <c r="B231" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C231" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D231" s="1">
         <v>8818</v>
@@ -12544,10 +12547,10 @@
         <v>2020.06</v>
       </c>
       <c r="B232" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D232" s="1">
         <v>9448</v>
@@ -12588,10 +12591,10 @@
         <v>2020.06</v>
       </c>
       <c r="B233" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D233" s="1">
         <v>19020</v>
@@ -12632,10 +12635,10 @@
         <v>2020.06</v>
       </c>
       <c r="B234" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C234" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D234" s="1">
         <v>12809</v>
@@ -12676,10 +12679,10 @@
         <v>2020.06</v>
       </c>
       <c r="B235" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C235" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D235" s="1">
         <v>9570</v>
@@ -12720,10 +12723,10 @@
         <v>2020.06</v>
       </c>
       <c r="B236" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C236" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D236" s="1">
         <v>11696</v>
@@ -12764,10 +12767,10 @@
         <v>2020.06</v>
       </c>
       <c r="B237" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C237" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D237" s="1">
         <v>19099</v>
@@ -12808,10 +12811,10 @@
         <v>2020.06</v>
       </c>
       <c r="B238" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C238" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D238" s="1">
         <v>10247</v>
@@ -12852,10 +12855,10 @@
         <v>2020.06</v>
       </c>
       <c r="B239" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C239" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D239" s="1">
         <v>179677</v>
@@ -12896,10 +12899,10 @@
         <v>2020.06</v>
       </c>
       <c r="B240" t="s">
+        <v>251</v>
+      </c>
+      <c r="C240" t="s">
         <v>252</v>
-      </c>
-      <c r="C240" t="s">
-        <v>253</v>
       </c>
       <c r="D240" s="1">
         <v>10568</v>
@@ -12940,10 +12943,10 @@
         <v>2020.06</v>
       </c>
       <c r="B241" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C241" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D241" s="1">
         <v>13225</v>
@@ -12984,10 +12987,10 @@
         <v>2020.06</v>
       </c>
       <c r="B242" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C242" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D242" s="1">
         <v>10042</v>
@@ -13028,10 +13031,10 @@
         <v>2020.06</v>
       </c>
       <c r="B243" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C243" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D243" s="1">
         <v>10118</v>
@@ -13072,10 +13075,10 @@
         <v>2020.06</v>
       </c>
       <c r="B244" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C244" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D244" s="1">
         <v>10130</v>
@@ -13116,10 +13119,10 @@
         <v>2020.06</v>
       </c>
       <c r="B245" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C245" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D245" s="1">
         <v>8506</v>
@@ -13160,10 +13163,10 @@
         <v>2020.06</v>
       </c>
       <c r="B246" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C246" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D246" s="1">
         <v>8136</v>
@@ -13204,10 +13207,10 @@
         <v>2020.06</v>
       </c>
       <c r="B247" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C247" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D247" s="1">
         <v>6917</v>
@@ -13248,10 +13251,10 @@
         <v>2020.06</v>
       </c>
       <c r="B248" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C248" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D248" s="1">
         <v>6453</v>
@@ -13292,10 +13295,10 @@
         <v>2020.06</v>
       </c>
       <c r="B249" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D249" s="1">
         <v>4723</v>
@@ -13336,10 +13339,10 @@
         <v>2020.06</v>
       </c>
       <c r="B250" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D250" s="1">
         <v>9225</v>
@@ -13380,10 +13383,10 @@
         <v>2020.06</v>
       </c>
       <c r="B251" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C251" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D251" s="1">
         <v>7206</v>
@@ -13424,10 +13427,10 @@
         <v>2020.06</v>
       </c>
       <c r="B252" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C252" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D252" s="1">
         <v>7123</v>
@@ -13468,10 +13471,10 @@
         <v>2020.06</v>
       </c>
       <c r="B253" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C253" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D253" s="1">
         <v>17913</v>
@@ -13512,10 +13515,10 @@
         <v>2020.06</v>
       </c>
       <c r="B254" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C254" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D254" s="1">
         <v>8222</v>
@@ -13556,10 +13559,10 @@
         <v>2020.06</v>
       </c>
       <c r="B255" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C255" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D255" s="1">
         <v>11567</v>
@@ -13600,10 +13603,10 @@
         <v>2020.06</v>
       </c>
       <c r="B256" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C256" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D256" s="1">
         <v>13572</v>
@@ -13644,10 +13647,10 @@
         <v>2020.06</v>
       </c>
       <c r="B257" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C257" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D257" s="1">
         <v>16031</v>
@@ -13688,10 +13691,10 @@
         <v>2020.06</v>
       </c>
       <c r="B258" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C258" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D258" s="1">
         <v>265252</v>
@@ -13732,10 +13735,10 @@
         <v>2020.06</v>
       </c>
       <c r="B259" t="s">
+        <v>270</v>
+      </c>
+      <c r="C259" t="s">
         <v>271</v>
-      </c>
-      <c r="C259" t="s">
-        <v>272</v>
       </c>
       <c r="D259" s="1">
         <v>15757</v>
@@ -13776,10 +13779,10 @@
         <v>2020.06</v>
       </c>
       <c r="B260" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C260" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D260" s="1">
         <v>12463</v>
@@ -13820,10 +13823,10 @@
         <v>2020.06</v>
       </c>
       <c r="B261" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C261" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D261" s="1">
         <v>8762</v>
@@ -13864,10 +13867,10 @@
         <v>2020.06</v>
       </c>
       <c r="B262" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C262" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D262" s="1">
         <v>14985</v>
@@ -13908,10 +13911,10 @@
         <v>2020.06</v>
       </c>
       <c r="B263" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C263" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D263" s="1">
         <v>16679</v>
@@ -13952,10 +13955,10 @@
         <v>2020.06</v>
       </c>
       <c r="B264" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C264" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D264" s="1">
         <v>8231</v>
@@ -13996,10 +13999,10 @@
         <v>2020.06</v>
       </c>
       <c r="B265" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C265" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D265" s="1">
         <v>9455</v>
@@ -14040,10 +14043,10 @@
         <v>2020.06</v>
       </c>
       <c r="B266" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C266" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D266" s="1">
         <v>9695</v>
@@ -14084,10 +14087,10 @@
         <v>2020.06</v>
       </c>
       <c r="B267" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C267" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D267" s="1">
         <v>12164</v>
@@ -14128,10 +14131,10 @@
         <v>2020.06</v>
       </c>
       <c r="B268" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D268" s="1">
         <v>11784</v>
@@ -14172,10 +14175,10 @@
         <v>2020.06</v>
       </c>
       <c r="B269" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D269" s="1">
         <v>19497</v>
@@ -14216,10 +14219,10 @@
         <v>2020.06</v>
       </c>
       <c r="B270" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C270" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D270" s="1">
         <v>8112</v>
@@ -14260,10 +14263,10 @@
         <v>2020.06</v>
       </c>
       <c r="B271" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C271" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D271" s="1">
         <v>7929</v>
@@ -14304,10 +14307,10 @@
         <v>2020.06</v>
       </c>
       <c r="B272" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C272" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D272" s="1">
         <v>13646</v>
@@ -14348,10 +14351,10 @@
         <v>2020.06</v>
       </c>
       <c r="B273" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C273" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D273" s="1">
         <v>12780</v>
@@ -14392,10 +14395,10 @@
         <v>2020.06</v>
       </c>
       <c r="B274" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C274" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D274" s="1">
         <v>17515</v>
@@ -14436,10 +14439,10 @@
         <v>2020.06</v>
       </c>
       <c r="B275" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C275" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D275" s="1">
         <v>11628</v>
@@ -14480,10 +14483,10 @@
         <v>2020.06</v>
       </c>
       <c r="B276" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C276" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D276" s="1">
         <v>11328</v>
@@ -14524,10 +14527,10 @@
         <v>2020.06</v>
       </c>
       <c r="B277" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C277" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D277" s="1">
         <v>26704</v>
@@ -14568,10 +14571,10 @@
         <v>2020.06</v>
       </c>
       <c r="B278" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C278" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D278" s="1">
         <v>16138</v>
@@ -14612,10 +14615,10 @@
         <v>2020.06</v>
       </c>
       <c r="B279" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C279" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D279" s="1">
         <v>178367</v>
@@ -14656,10 +14659,10 @@
         <v>2020.06</v>
       </c>
       <c r="B280" t="s">
+        <v>291</v>
+      </c>
+      <c r="C280" t="s">
         <v>292</v>
-      </c>
-      <c r="C280" t="s">
-        <v>293</v>
       </c>
       <c r="D280" s="1">
         <v>13425</v>
@@ -14700,10 +14703,10 @@
         <v>2020.06</v>
       </c>
       <c r="B281" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C281" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D281" s="1">
         <v>8346</v>
@@ -14744,10 +14747,10 @@
         <v>2020.06</v>
       </c>
       <c r="B282" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C282" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D282" s="1">
         <v>13178</v>
@@ -14788,10 +14791,10 @@
         <v>2020.06</v>
       </c>
       <c r="B283" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C283" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D283" s="1">
         <v>10626</v>
@@ -14832,10 +14835,10 @@
         <v>2020.06</v>
       </c>
       <c r="B284" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C284" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D284" s="1">
         <v>14646</v>
@@ -14876,10 +14879,10 @@
         <v>2020.06</v>
       </c>
       <c r="B285" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C285" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D285" s="1">
         <v>9596</v>
@@ -14920,10 +14923,10 @@
         <v>2020.06</v>
       </c>
       <c r="B286" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C286" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D286" s="1">
         <v>11612</v>
@@ -14964,10 +14967,10 @@
         <v>2020.06</v>
       </c>
       <c r="B287" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C287" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D287" s="1">
         <v>12580</v>
@@ -15008,10 +15011,10 @@
         <v>2020.06</v>
       </c>
       <c r="B288" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C288" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D288" s="1">
         <v>8911</v>
@@ -15052,10 +15055,10 @@
         <v>2020.06</v>
       </c>
       <c r="B289" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D289" s="1">
         <v>11610</v>
@@ -15096,10 +15099,10 @@
         <v>2020.06</v>
       </c>
       <c r="B290" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D290" s="1">
         <v>9899</v>
@@ -15140,10 +15143,10 @@
         <v>2020.06</v>
       </c>
       <c r="B291" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C291" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D291" s="1">
         <v>5971</v>
@@ -15184,10 +15187,10 @@
         <v>2020.06</v>
       </c>
       <c r="B292" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C292" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D292" s="1">
         <v>12704</v>
@@ -15228,10 +15231,10 @@
         <v>2020.06</v>
       </c>
       <c r="B293" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C293" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D293" s="1">
         <v>13849</v>
@@ -15272,10 +15275,10 @@
         <v>2020.06</v>
       </c>
       <c r="B294" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C294" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D294" s="1">
         <v>15550</v>
@@ -15316,10 +15319,10 @@
         <v>2020.06</v>
       </c>
       <c r="B295" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C295" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D295" s="1">
         <v>5864</v>
@@ -15360,10 +15363,10 @@
         <v>2020.06</v>
       </c>
       <c r="B296" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C296" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D296" s="1">
         <v>112570</v>
@@ -15404,10 +15407,10 @@
         <v>2020.06</v>
       </c>
       <c r="B297" t="s">
+        <v>308</v>
+      </c>
+      <c r="C297" t="s">
         <v>309</v>
-      </c>
-      <c r="C297" t="s">
-        <v>310</v>
       </c>
       <c r="D297" s="1">
         <v>14456</v>
@@ -15448,10 +15451,10 @@
         <v>2020.06</v>
       </c>
       <c r="B298" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C298" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D298" s="1">
         <v>21047</v>
@@ -15492,10 +15495,10 @@
         <v>2020.06</v>
       </c>
       <c r="B299" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C299" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D299" s="1">
         <v>9304</v>
@@ -15536,10 +15539,10 @@
         <v>2020.06</v>
       </c>
       <c r="B300" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C300" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D300" s="1">
         <v>12455</v>
@@ -15580,10 +15583,10 @@
         <v>2020.06</v>
       </c>
       <c r="B301" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C301" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D301" s="1">
         <v>7665</v>
@@ -15624,10 +15627,10 @@
         <v>2020.06</v>
       </c>
       <c r="B302" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C302" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D302" s="1">
         <v>15972</v>
@@ -15668,10 +15671,10 @@
         <v>2020.06</v>
       </c>
       <c r="B303" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C303" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D303" s="1">
         <v>8424</v>
@@ -15712,10 +15715,10 @@
         <v>2020.06</v>
       </c>
       <c r="B304" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C304" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D304" s="1">
         <v>4757</v>
@@ -15756,10 +15759,10 @@
         <v>2020.06</v>
       </c>
       <c r="B305" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C305" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D305" s="1">
         <v>9117</v>
@@ -15800,10 +15803,10 @@
         <v>2020.06</v>
       </c>
       <c r="B306" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D306" s="1">
         <v>9373</v>
@@ -15844,10 +15847,10 @@
         <v>2020.06</v>
       </c>
       <c r="B307" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C307" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D307" s="1">
         <v>179787</v>
@@ -15888,10 +15891,10 @@
         <v>2020.06</v>
       </c>
       <c r="B308" t="s">
+        <v>319</v>
+      </c>
+      <c r="C308" t="s">
         <v>320</v>
-      </c>
-      <c r="C308" t="s">
-        <v>321</v>
       </c>
       <c r="D308" s="1">
         <v>13729</v>
@@ -15932,10 +15935,10 @@
         <v>2020.06</v>
       </c>
       <c r="B309" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C309" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D309" s="1">
         <v>10721</v>
@@ -15976,10 +15979,10 @@
         <v>2020.06</v>
       </c>
       <c r="B310" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C310" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D310" s="1">
         <v>18049</v>
@@ -16020,10 +16023,10 @@
         <v>2020.06</v>
       </c>
       <c r="B311" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C311" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D311" s="1">
         <v>9088</v>
@@ -16064,10 +16067,10 @@
         <v>2020.06</v>
       </c>
       <c r="B312" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C312" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D312" s="1">
         <v>10126</v>
@@ -16108,10 +16111,10 @@
         <v>2020.06</v>
       </c>
       <c r="B313" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C313" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D313" s="1">
         <v>10364</v>
@@ -16152,10 +16155,10 @@
         <v>2020.06</v>
       </c>
       <c r="B314" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C314" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D314" s="1">
         <v>7650</v>
@@ -16196,10 +16199,10 @@
         <v>2020.06</v>
       </c>
       <c r="B315" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C315" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D315" s="1">
         <v>4327</v>
@@ -16240,10 +16243,10 @@
         <v>2020.06</v>
       </c>
       <c r="B316" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C316" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D316" s="1">
         <v>4937</v>
@@ -16284,10 +16287,10 @@
         <v>2020.06</v>
       </c>
       <c r="B317" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D317" s="1">
         <v>8565</v>
@@ -16328,10 +16331,10 @@
         <v>2020.06</v>
       </c>
       <c r="B318" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D318" s="1">
         <v>7881</v>
@@ -16372,10 +16375,10 @@
         <v>2020.06</v>
       </c>
       <c r="B319" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C319" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D319" s="1">
         <v>6379</v>
@@ -16416,10 +16419,10 @@
         <v>2020.06</v>
       </c>
       <c r="B320" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C320" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D320" s="1">
         <v>6865</v>
@@ -16460,10 +16463,10 @@
         <v>2020.06</v>
       </c>
       <c r="B321" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C321" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D321" s="1">
         <v>10453</v>
@@ -16504,10 +16507,10 @@
         <v>2020.06</v>
       </c>
       <c r="B322" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C322" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D322" s="1">
         <v>10228</v>
@@ -16548,10 +16551,10 @@
         <v>2020.06</v>
       </c>
       <c r="B323" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C323" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D323" s="1">
         <v>18003</v>
@@ -16592,10 +16595,10 @@
         <v>2020.06</v>
       </c>
       <c r="B324" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C324" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D324" s="1">
         <v>9384</v>
@@ -16636,10 +16639,10 @@
         <v>2020.06</v>
       </c>
       <c r="B325" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C325" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D325" s="1">
         <v>13038</v>
@@ -16680,10 +16683,10 @@
         <v>2020.06</v>
       </c>
       <c r="B326" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C326" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D326" s="1">
         <v>183537</v>
@@ -16724,10 +16727,10 @@
         <v>2020.06</v>
       </c>
       <c r="B327" t="s">
+        <v>338</v>
+      </c>
+      <c r="C327" t="s">
         <v>339</v>
-      </c>
-      <c r="C327" t="s">
-        <v>340</v>
       </c>
       <c r="D327" s="1">
         <v>7262</v>
@@ -16768,10 +16771,10 @@
         <v>2020.06</v>
       </c>
       <c r="B328" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C328" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D328" s="1">
         <v>21593</v>
@@ -16812,10 +16815,10 @@
         <v>2020.06</v>
       </c>
       <c r="B329" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C329" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D329" s="1">
         <v>12775</v>
@@ -16856,10 +16859,10 @@
         <v>2020.06</v>
       </c>
       <c r="B330" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C330" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D330" s="1">
         <v>12046</v>
@@ -16900,10 +16903,10 @@
         <v>2020.06</v>
       </c>
       <c r="B331" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C331" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D331" s="1">
         <v>13712</v>
@@ -16944,10 +16947,10 @@
         <v>2020.06</v>
       </c>
       <c r="B332" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C332" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D332" s="1">
         <v>13246</v>
@@ -16988,10 +16991,10 @@
         <v>2020.06</v>
       </c>
       <c r="B333" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C333" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D333" s="1">
         <v>10541</v>
@@ -17032,10 +17035,10 @@
         <v>2020.06</v>
       </c>
       <c r="B334" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C334" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D334" s="1">
         <v>7153</v>
@@ -17076,10 +17079,10 @@
         <v>2020.06</v>
       </c>
       <c r="B335" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C335" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D335" s="1">
         <v>6503</v>
@@ -17120,10 +17123,10 @@
         <v>2020.06</v>
       </c>
       <c r="B336" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D336" s="1">
         <v>17229</v>
@@ -17164,10 +17167,10 @@
         <v>2020.06</v>
       </c>
       <c r="B337" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D337" s="1">
         <v>10116</v>
@@ -17208,10 +17211,10 @@
         <v>2020.06</v>
       </c>
       <c r="B338" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C338" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D338" s="1">
         <v>9424</v>
@@ -17252,10 +17255,10 @@
         <v>2020.06</v>
       </c>
       <c r="B339" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C339" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D339" s="1">
         <v>14397</v>
@@ -17296,10 +17299,10 @@
         <v>2020.06</v>
       </c>
       <c r="B340" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C340" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D340" s="1">
         <v>15596</v>
@@ -17340,10 +17343,10 @@
         <v>2020.06</v>
       </c>
       <c r="B341" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C341" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D341" s="1">
         <v>11944</v>
@@ -17384,10 +17387,10 @@
         <v>2020.06</v>
       </c>
       <c r="B342" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C342" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D342" s="1">
         <v>273715</v>
@@ -17428,10 +17431,10 @@
         <v>2020.06</v>
       </c>
       <c r="B343" t="s">
+        <v>354</v>
+      </c>
+      <c r="C343" t="s">
         <v>355</v>
-      </c>
-      <c r="C343" t="s">
-        <v>356</v>
       </c>
       <c r="D343" s="1">
         <v>12466</v>
@@ -17472,10 +17475,10 @@
         <v>2020.06</v>
       </c>
       <c r="B344" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C344" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D344" s="1">
         <v>6566</v>
@@ -17516,10 +17519,10 @@
         <v>2020.06</v>
       </c>
       <c r="B345" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C345" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D345" s="1">
         <v>17453</v>
@@ -17560,10 +17563,10 @@
         <v>2020.06</v>
       </c>
       <c r="B346" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C346" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D346" s="1">
         <v>11105</v>
@@ -17604,10 +17607,10 @@
         <v>2020.06</v>
       </c>
       <c r="B347" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C347" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D347" s="1">
         <v>9724</v>
@@ -17648,10 +17651,10 @@
         <v>2020.06</v>
       </c>
       <c r="B348" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C348" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D348" s="1">
         <v>14245</v>
@@ -17692,10 +17695,10 @@
         <v>2020.06</v>
       </c>
       <c r="B349" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C349" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D349" s="1">
         <v>9478</v>
@@ -17736,10 +17739,10 @@
         <v>2020.06</v>
       </c>
       <c r="B350" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C350" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D350" s="1">
         <v>14209</v>
@@ -17780,10 +17783,10 @@
         <v>2020.06</v>
       </c>
       <c r="B351" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C351" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D351" s="1">
         <v>10793</v>
@@ -17824,10 +17827,10 @@
         <v>2020.06</v>
       </c>
       <c r="B352" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C352" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D352" s="1">
         <v>14453</v>
@@ -17868,10 +17871,10 @@
         <v>2020.06</v>
       </c>
       <c r="B353" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D353" s="1">
         <v>13607</v>
@@ -17912,10 +17915,10 @@
         <v>2020.06</v>
       </c>
       <c r="B354" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C354" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D354" s="1">
         <v>17212</v>
@@ -17956,10 +17959,10 @@
         <v>2020.06</v>
       </c>
       <c r="B355" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C355" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D355" s="1">
         <v>6434</v>
@@ -18000,10 +18003,10 @@
         <v>2020.06</v>
       </c>
       <c r="B356" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C356" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D356" s="1">
         <v>10541</v>
@@ -18044,10 +18047,10 @@
         <v>2020.06</v>
       </c>
       <c r="B357" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C357" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D357" s="1">
         <v>16191</v>
@@ -18088,10 +18091,10 @@
         <v>2020.06</v>
       </c>
       <c r="B358" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C358" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D358" s="1">
         <v>16075</v>
@@ -18132,10 +18135,10 @@
         <v>2020.06</v>
       </c>
       <c r="B359" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C359" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D359" s="1">
         <v>12492</v>
@@ -18176,10 +18179,10 @@
         <v>2020.06</v>
       </c>
       <c r="B360" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C360" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D360" s="1">
         <v>22094</v>
@@ -18220,10 +18223,10 @@
         <v>2020.06</v>
       </c>
       <c r="B361" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C361" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D361" s="1">
         <v>12971</v>
@@ -18264,10 +18267,10 @@
         <v>2020.06</v>
       </c>
       <c r="B362" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C362" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D362" s="1">
         <v>11429</v>
@@ -18308,10 +18311,10 @@
         <v>2020.06</v>
       </c>
       <c r="B363" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C363" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D363" s="1">
         <v>14177</v>
@@ -18352,10 +18355,10 @@
         <v>2020.06</v>
       </c>
       <c r="B364" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C364" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D364" s="1">
         <v>173998</v>
@@ -18396,10 +18399,10 @@
         <v>2020.06</v>
       </c>
       <c r="B365" t="s">
+        <v>376</v>
+      </c>
+      <c r="C365" t="s">
         <v>377</v>
-      </c>
-      <c r="C365" t="s">
-        <v>378</v>
       </c>
       <c r="D365" s="1">
         <v>9345</v>
@@ -18440,10 +18443,10 @@
         <v>2020.06</v>
       </c>
       <c r="B366" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C366" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D366" s="1">
         <v>8575</v>
@@ -18484,10 +18487,10 @@
         <v>2020.06</v>
       </c>
       <c r="B367" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C367" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D367" s="1">
         <v>13880</v>
@@ -18528,10 +18531,10 @@
         <v>2020.06</v>
       </c>
       <c r="B368" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C368" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D368" s="1">
         <v>11060</v>
@@ -18572,10 +18575,10 @@
         <v>2020.06</v>
       </c>
       <c r="B369" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C369" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D369" s="1">
         <v>13667</v>
@@ -18616,10 +18619,10 @@
         <v>2020.06</v>
       </c>
       <c r="B370" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C370" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D370" s="1">
         <v>4136</v>
@@ -18660,10 +18663,10 @@
         <v>2020.06</v>
       </c>
       <c r="B371" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C371" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D371" s="1">
         <v>14389</v>
@@ -18704,10 +18707,10 @@
         <v>2020.06</v>
       </c>
       <c r="B372" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C372" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D372" s="1">
         <v>5123</v>
@@ -18748,10 +18751,10 @@
         <v>2020.06</v>
       </c>
       <c r="B373" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C373" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D373" s="1">
         <v>7525</v>
@@ -18792,10 +18795,10 @@
         <v>2020.06</v>
       </c>
       <c r="B374" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C374" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D374" s="1">
         <v>7319</v>
@@ -18836,10 +18839,10 @@
         <v>2020.06</v>
       </c>
       <c r="B375" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D375" s="1">
         <v>7964</v>
@@ -18880,10 +18883,10 @@
         <v>2020.06</v>
       </c>
       <c r="B376" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C376" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D376" s="1">
         <v>7720</v>
@@ -18924,10 +18927,10 @@
         <v>2020.06</v>
       </c>
       <c r="B377" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C377" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D377" s="1">
         <v>8707</v>
@@ -18968,10 +18971,10 @@
         <v>2020.06</v>
       </c>
       <c r="B378" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C378" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D378" s="1">
         <v>8366</v>
@@ -19012,10 +19015,10 @@
         <v>2020.06</v>
       </c>
       <c r="B379" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C379" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D379" s="1">
         <v>9796</v>
@@ -19056,10 +19059,10 @@
         <v>2020.06</v>
       </c>
       <c r="B380" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C380" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D380" s="1">
         <v>18283</v>
@@ -19100,10 +19103,10 @@
         <v>2020.06</v>
       </c>
       <c r="B381" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C381" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D381" s="1">
         <v>10808</v>
@@ -19144,10 +19147,10 @@
         <v>2020.06</v>
       </c>
       <c r="B382" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C382" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D382" s="1">
         <v>7335</v>
@@ -19188,10 +19191,10 @@
         <v>2020.06</v>
       </c>
       <c r="B383" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C383" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D383" s="1">
         <v>233484</v>
@@ -19232,10 +19235,10 @@
         <v>2020.06</v>
       </c>
       <c r="B384" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C384" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D384" s="1">
         <v>7391</v>
@@ -19276,10 +19279,10 @@
         <v>2020.06</v>
       </c>
       <c r="B385" t="s">
+        <v>395</v>
+      </c>
+      <c r="C385" t="s">
         <v>396</v>
-      </c>
-      <c r="C385" t="s">
-        <v>397</v>
       </c>
       <c r="D385" s="1">
         <v>14443</v>
@@ -19320,10 +19323,10 @@
         <v>2020.06</v>
       </c>
       <c r="B386" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C386" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D386" s="1">
         <v>11440</v>
@@ -19364,10 +19367,10 @@
         <v>2020.06</v>
       </c>
       <c r="B387" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C387" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D387" s="1">
         <v>6042</v>
@@ -19408,10 +19411,10 @@
         <v>2020.06</v>
       </c>
       <c r="B388" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C388" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D388" s="1">
         <v>13490</v>
@@ -19452,10 +19455,10 @@
         <v>2020.06</v>
       </c>
       <c r="B389" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C389" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D389" s="1">
         <v>7394</v>
@@ -19496,10 +19499,10 @@
         <v>2020.06</v>
       </c>
       <c r="B390" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C390" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D390" s="1">
         <v>10216</v>
@@ -19540,10 +19543,10 @@
         <v>2020.06</v>
       </c>
       <c r="B391" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C391" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D391" s="1">
         <v>23850</v>
@@ -19584,10 +19587,10 @@
         <v>2020.06</v>
       </c>
       <c r="B392" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C392" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D392" s="1">
         <v>15690</v>
@@ -19628,10 +19631,10 @@
         <v>2020.06</v>
       </c>
       <c r="B393" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C393" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D393" s="1">
         <v>8652</v>
@@ -19672,10 +19675,10 @@
         <v>2020.06</v>
       </c>
       <c r="B394" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D394" s="1">
         <v>11843</v>
@@ -19716,10 +19719,10 @@
         <v>2020.06</v>
       </c>
       <c r="B395" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C395" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D395" s="1">
         <v>2713</v>
@@ -19760,10 +19763,10 @@
         <v>2020.06</v>
       </c>
       <c r="B396" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C396" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D396" s="1">
         <v>7768</v>
@@ -19804,10 +19807,10 @@
         <v>2020.06</v>
       </c>
       <c r="B397" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C397" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D397" s="1">
         <v>8160</v>
@@ -19848,10 +19851,10 @@
         <v>2020.06</v>
       </c>
       <c r="B398" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C398" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D398" s="1">
         <v>7499</v>
@@ -19892,10 +19895,10 @@
         <v>2020.06</v>
       </c>
       <c r="B399" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C399" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D399" s="1">
         <v>7392</v>
@@ -19936,10 +19939,10 @@
         <v>2020.06</v>
       </c>
       <c r="B400" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C400" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D400" s="1">
         <v>7881</v>
@@ -19980,10 +19983,10 @@
         <v>2020.06</v>
       </c>
       <c r="B401" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C401" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D401" s="1">
         <v>17978</v>
@@ -20024,10 +20027,10 @@
         <v>2020.06</v>
       </c>
       <c r="B402" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C402" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D402" s="1">
         <v>10723</v>
@@ -20068,10 +20071,10 @@
         <v>2020.06</v>
       </c>
       <c r="B403" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C403" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D403" s="1">
         <v>11891</v>
@@ -20112,10 +20115,10 @@
         <v>2020.06</v>
       </c>
       <c r="B404" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C404" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D404" s="1">
         <v>12950</v>
@@ -20156,10 +20159,10 @@
         <v>2020.06</v>
       </c>
       <c r="B405" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C405" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D405" s="1">
         <v>8078</v>
@@ -20200,10 +20203,10 @@
         <v>2020.06</v>
       </c>
       <c r="B406" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C406" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D406" s="1">
         <v>280135</v>
@@ -20244,10 +20247,10 @@
         <v>2020.06</v>
       </c>
       <c r="B407" t="s">
+        <v>417</v>
+      </c>
+      <c r="C407" t="s">
         <v>418</v>
-      </c>
-      <c r="C407" t="s">
-        <v>419</v>
       </c>
       <c r="D407" s="1">
         <v>6440</v>
@@ -20288,10 +20291,10 @@
         <v>2020.06</v>
       </c>
       <c r="B408" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C408" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D408" s="1">
         <v>11102</v>
@@ -20332,10 +20335,10 @@
         <v>2020.06</v>
       </c>
       <c r="B409" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C409" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D409" s="1">
         <v>5566</v>
@@ -20376,10 +20379,10 @@
         <v>2020.06</v>
       </c>
       <c r="B410" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C410" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D410" s="1">
         <v>7204</v>
@@ -20420,10 +20423,10 @@
         <v>2020.06</v>
       </c>
       <c r="B411" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C411" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D411" s="1">
         <v>9036</v>
@@ -20464,10 +20467,10 @@
         <v>2020.06</v>
       </c>
       <c r="B412" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C412" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D412" s="1">
         <v>8823</v>
@@ -20508,10 +20511,10 @@
         <v>2020.06</v>
       </c>
       <c r="B413" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C413" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D413" s="1">
         <v>6306</v>
@@ -20552,10 +20555,10 @@
         <v>2020.06</v>
       </c>
       <c r="B414" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C414" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D414" s="1">
         <v>14267</v>
@@ -20596,10 +20599,10 @@
         <v>2020.06</v>
       </c>
       <c r="B415" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C415" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D415" s="1">
         <v>5958</v>
@@ -20640,10 +20643,10 @@
         <v>2020.06</v>
       </c>
       <c r="B416" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D416" s="1">
         <v>15960</v>
@@ -20684,10 +20687,10 @@
         <v>2020.06</v>
       </c>
       <c r="B417" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C417" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D417" s="1">
         <v>12450</v>
@@ -20728,10 +20731,10 @@
         <v>2020.06</v>
       </c>
       <c r="B418" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C418" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D418" s="1">
         <v>7538</v>
@@ -20772,10 +20775,10 @@
         <v>2020.06</v>
       </c>
       <c r="B419" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C419" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D419" s="1">
         <v>17093</v>
@@ -20816,10 +20819,10 @@
         <v>2020.06</v>
       </c>
       <c r="B420" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C420" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D420" s="1">
         <v>16325</v>
@@ -20860,10 +20863,10 @@
         <v>2020.06</v>
       </c>
       <c r="B421" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C421" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D421" s="1">
         <v>11962</v>
@@ -20904,10 +20907,10 @@
         <v>2020.06</v>
       </c>
       <c r="B422" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C422" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D422" s="1">
         <v>9919</v>
@@ -20948,10 +20951,10 @@
         <v>2020.06</v>
       </c>
       <c r="B423" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C423" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D423" s="1">
         <v>12339</v>
@@ -20992,10 +20995,10 @@
         <v>2020.06</v>
       </c>
       <c r="B424" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C424" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D424" s="1">
         <v>8569</v>
@@ -21036,10 +21039,10 @@
         <v>2020.06</v>
       </c>
       <c r="B425" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C425" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D425" s="1">
         <v>15575</v>
@@ -21080,10 +21083,10 @@
         <v>2020.06</v>
       </c>
       <c r="B426" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C426" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D426" s="1">
         <v>15386</v>
@@ -21124,10 +21127,10 @@
         <v>2020.06</v>
       </c>
       <c r="B427" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C427" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D427" s="1">
         <v>7454</v>
@@ -21168,10 +21171,10 @@
         <v>2020.06</v>
       </c>
       <c r="B428" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C428" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D428" s="1">
         <v>5950</v>
@@ -21212,10 +21215,10 @@
         <v>2020.06</v>
       </c>
       <c r="B429" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C429" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D429" s="1">
         <v>3475</v>
@@ -21256,10 +21259,10 @@
         <v>2020.06</v>
       </c>
       <c r="B430" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C430" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D430" s="1">
         <v>11964</v>
@@ -21300,10 +21303,10 @@
         <v>2020.06</v>
       </c>
       <c r="B431" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C431" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D431" s="1">
         <v>12176</v>
@@ -21344,10 +21347,10 @@
         <v>2020.06</v>
       </c>
       <c r="B432" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C432" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D432" s="1">
         <v>12268</v>
@@ -21388,10 +21391,10 @@
         <v>2020.06</v>
       </c>
       <c r="B433" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C433" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D433" s="1">
         <v>9030</v>
@@ -21432,10 +21435,10 @@
         <v>2020.06</v>
       </c>
       <c r="B434" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C434" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D434" s="1">
         <v>193095</v>
@@ -21476,10 +21479,10 @@
         <v>2020.06</v>
       </c>
       <c r="B435" t="s">
+        <v>445</v>
+      </c>
+      <c r="C435" t="s">
         <v>446</v>
-      </c>
-      <c r="C435" t="s">
-        <v>447</v>
       </c>
       <c r="D435" s="1">
         <v>11253</v>
@@ -21520,10 +21523,10 @@
         <v>2020.06</v>
       </c>
       <c r="B436" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C436" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D436" s="1">
         <v>11349</v>
@@ -21564,10 +21567,10 @@
         <v>2020.06</v>
       </c>
       <c r="B437" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C437" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D437" s="1">
         <v>10037</v>
@@ -21608,10 +21611,10 @@
         <v>2020.06</v>
       </c>
       <c r="B438" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C438" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D438" s="1">
         <v>5981</v>
@@ -21652,10 +21655,10 @@
         <v>2020.06</v>
       </c>
       <c r="B439" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C439" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D439" s="1">
         <v>8938</v>
@@ -21696,10 +21699,10 @@
         <v>2020.06</v>
       </c>
       <c r="B440" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C440" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D440" s="1">
         <v>8146</v>
@@ -21740,10 +21743,10 @@
         <v>2020.06</v>
       </c>
       <c r="B441" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C441" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D441" s="1">
         <v>6382</v>
@@ -21784,10 +21787,10 @@
         <v>2020.06</v>
       </c>
       <c r="B442" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C442" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D442" s="1">
         <v>6352</v>
@@ -21828,10 +21831,10 @@
         <v>2020.06</v>
       </c>
       <c r="B443" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C443" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D443" s="1">
         <v>12862</v>
@@ -21872,10 +21875,10 @@
         <v>2020.06</v>
       </c>
       <c r="B444" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D444" s="1">
         <v>13759</v>
@@ -21916,10 +21919,10 @@
         <v>2020.06</v>
       </c>
       <c r="B445" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C445" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D445" s="1">
         <v>8169</v>
@@ -21960,10 +21963,10 @@
         <v>2020.06</v>
       </c>
       <c r="B446" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C446" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D446" s="1">
         <v>12759</v>
@@ -22004,10 +22007,10 @@
         <v>2020.06</v>
       </c>
       <c r="B447" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C447" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D447" s="1">
         <v>10498</v>
@@ -22048,10 +22051,10 @@
         <v>2020.06</v>
       </c>
       <c r="B448" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C448" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D448">
         <v>161</v>
@@ -22092,10 +22095,10 @@
         <v>2020.06</v>
       </c>
       <c r="B449" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C449" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D449" s="1">
         <v>11234</v>
@@ -22136,10 +22139,10 @@
         <v>2020.06</v>
       </c>
       <c r="B450" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C450" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D450" s="1">
         <v>16179</v>
@@ -22180,10 +22183,10 @@
         <v>2020.06</v>
       </c>
       <c r="B451" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C451" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D451" s="1">
         <v>17754</v>
@@ -22224,10 +22227,10 @@
         <v>2020.06</v>
       </c>
       <c r="B452" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C452" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D452" s="1">
         <v>21282</v>
@@ -22266,5 +22269,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>